--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4516" uniqueCount="4516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="4517">
   <si>
     <t>No</t>
   </si>
@@ -13542,6 +13542,9 @@
   </si>
   <si>
     <t>quater500</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Note:</t>
@@ -13656,12 +13659,22 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -13708,1504 +13721,1504 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
@@ -15232,14 +15245,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J507"/>
+  <dimension ref="A1:J508"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.0" customWidth="true"/>
-    <col min="2" max="2" width="12.0" customWidth="true"/>
+    <col min="1" max="1" width="7.0" customWidth="true"/>
+    <col min="2" max="2" width="25.0" customWidth="true"/>
     <col min="3" max="3" width="12.0" customWidth="true"/>
     <col min="4" max="4" width="12.0" customWidth="true"/>
     <col min="5" max="5" width="12.0" customWidth="true"/>
@@ -31283,33 +31296,38 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="s" s="511">
+      <c r="A502" t="s">
         <v>4510</v>
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="s" s="512">
+      <c r="A503" t="s" s="511">
         <v>4511</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="s" s="513">
+      <c r="A504" t="s" s="512">
         <v>4512</v>
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="s" s="514">
+      <c r="A505" t="s" s="513">
         <v>4513</v>
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="s" s="515">
+      <c r="A506" t="s" s="514">
         <v>4514</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="s" s="516">
+      <c r="A507" t="s" s="515">
         <v>4515</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s" s="516">
+        <v>4516</v>
       </c>
     </row>
   </sheetData>
